--- a/notes/06 June 2017/Week 2/early warning system examples/00_all/early_warning_systems.xlsx
+++ b/notes/06 June 2017/Week 2/early warning system examples/00_all/early_warning_systems.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="131">
   <si>
     <t>level of government</t>
   </si>
@@ -194,9 +197,6 @@
     <t>http://journals.ametsoc.org/doi/pdf/10.1175/1520-0477%281996%29077%3C1519%3ATPHWHW%3E2.0.CO%3B2</t>
   </si>
   <si>
-    <t>Heat Index(?)</t>
-  </si>
-  <si>
     <t>Extreme Weather Notification System</t>
   </si>
   <si>
@@ -284,9 +284,6 @@
     <t>Human-mediated: Temperature and Humidex thresholds, 3 day forecasts, morbidity and mortality health surveillance</t>
   </si>
   <si>
-    <t>city: Montral, QC</t>
-  </si>
-  <si>
     <t>15 May - 30 September</t>
   </si>
   <si>
@@ -414,13 +411,22 @@
   </si>
   <si>
     <t>Thailand</t>
+  </si>
+  <si>
+    <t>city: Montreal, QC</t>
+  </si>
+  <si>
+    <t>Synoptic</t>
+  </si>
+  <si>
+    <t>city: St. Louis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,13 +476,27 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,11 +508,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,8 +556,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -813,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -883,7 +918,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>27</v>
@@ -923,7 +958,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>23</v>
@@ -932,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>23</v>
@@ -949,7 +984,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -957,25 +992,25 @@
         <v>36</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>33</v>
@@ -984,10 +1019,10 @@
         <v>23</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -995,69 +1030,69 @@
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>23</v>
@@ -1066,18 +1101,18 @@
         <v>23</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>23</v>
@@ -1086,13 +1121,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>23</v>
@@ -1101,34 +1136,34 @@
         <v>23</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1136,18 +1171,18 @@
         <v>23</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -1156,13 +1191,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>23</v>
@@ -1171,30 +1206,30 @@
         <v>23</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="2">
         <v>2006</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>23</v>
@@ -1203,18 +1238,18 @@
         <v>23</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>23</v>
@@ -1244,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -1330,7 +1365,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>14</v>
@@ -1355,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>27</v>
@@ -1387,72 +1422,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:32" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2013</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="M17" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>23</v>
@@ -1460,68 +1495,68 @@
       <c r="K18" s="7"/>
       <c r="L18" s="9"/>
       <c r="M18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>23</v>
@@ -1532,13 +1567,13 @@
     </row>
     <row r="21" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
@@ -1547,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>23</v>
@@ -1561,28 +1596,28 @@
     </row>
     <row r="22" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>23</v>
@@ -1610,10 +1645,10 @@
     </row>
     <row r="23" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>27</v>
@@ -1625,16 +1660,16 @@
         <v>23</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>23</v>
@@ -1642,43 +1677,43 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8" t="s">
+      <c r="J24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1687,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
@@ -1716,7 +1751,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
@@ -1742,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>23</v>
@@ -1768,7 +1803,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -1789,105 +1824,141 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="1:32" s="25" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="22">
         <v>1995</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="G28" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8" t="s">
+      <c r="J28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M28" s="23" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
+      <c r="A30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
     </row>
   </sheetData>
   <sortState ref="A2:M30">
